--- a/C61/Sprint 2/Sprint2.xlsx
+++ b/C61/Sprint 2/Sprint2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ProjetFinalC61\C61\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3E7B4A-970E-47E3-8DF5-700EF6D802C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BED722-004B-41FE-8542-DF5E1C2FC8C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80CEE581-9966-4545-B524-8DE50C3A5DE4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
   <si>
     <t>Sanity Manager</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>20%</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Repoussé au Sprint3</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -301,7 +310,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +353,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -560,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -575,12 +590,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,54 +642,108 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,151 +1068,152 @@
   <dimension ref="B1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="6" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="100" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21">
+      <c r="B2" s="19">
         <v>19</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="21">
         <v>1</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="22">
         <v>180</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="32">
         <f>J20</f>
         <v>0</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21">
+      <c r="B3" s="19">
         <v>20</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="22">
         <v>120</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="35" t="s">
+      <c r="H3" s="28"/>
+      <c r="I3" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="34">
         <v>0</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21">
+      <c r="B4" s="19">
         <v>21</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="22">
         <v>90</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="35" t="s">
+      <c r="H4" s="28"/>
+      <c r="I4" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="34">
         <v>0</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1157,82 +1221,88 @@
       <c r="B5" s="1">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="41">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="42">
         <v>120</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="29"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="45"/>
+      <c r="L5" s="46" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21">
+      <c r="B6" s="19">
         <v>23</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="22">
         <v>90</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="29"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>23.1</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="27" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="25">
         <v>240</v>
       </c>
-      <c r="H7" s="25">
-        <v>70</v>
-      </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41" t="s">
+      <c r="H7" s="23">
+        <v>120</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="26" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1240,82 +1310,98 @@
       <c r="B8" s="1">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="41">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="42">
         <v>120</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="29"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="41">
         <v>2</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="42">
         <v>120</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="29"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="42">
         <v>90</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26" t="s">
+      <c r="H10" s="43"/>
+      <c r="I10" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="37">
         <v>3</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="45">
         <v>0</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="46" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1323,32 +1409,32 @@
       <c r="B11" s="1">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="49">
         <v>120</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26" t="s">
+      <c r="H11" s="50"/>
+      <c r="I11" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="41">
+      <c r="J11" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="53">
         <v>0</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="59" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1356,32 +1442,32 @@
       <c r="B12" s="1">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="49">
         <v>120</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26" t="s">
+      <c r="H12" s="50"/>
+      <c r="I12" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="41">
+      <c r="J12" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="53">
         <v>0</v>
       </c>
-      <c r="L12" s="31"/>
+      <c r="L12" s="61"/>
     </row>
     <row r="13" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
@@ -1402,15 +1488,15 @@
       <c r="G13" s="4">
         <v>120</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="23">
         <v>150</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41" t="s">
+      <c r="I13" s="24"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="38" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1433,46 +1519,46 @@
       <c r="G14" s="4">
         <v>120</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="23">
         <v>150</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41" t="s">
+      <c r="I14" s="24"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="31"/>
+      <c r="L14" s="39"/>
     </row>
     <row r="15" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="49">
         <v>240</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26" t="s">
+      <c r="H15" s="50"/>
+      <c r="I15" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="41">
+      <c r="J15" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="53">
         <v>0</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="L15" s="54" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1480,58 +1566,58 @@
       <c r="B16" s="1">
         <v>32</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="48">
         <v>31</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="49">
         <v>240</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="28" t="s">
+      <c r="H16" s="50"/>
+      <c r="I16" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="44">
+      <c r="J16" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="58">
         <v>0</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="54" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M20" s="17" t="s">
+      <c r="M20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="16">
         <v>1875</v>
       </c>
     </row>
     <row r="21" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M21" s="17" t="s">
+      <c r="M21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="16">
         <f>SUM(H2:H16)</f>
-        <v>370</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
